--- a/toys.xlsx
+++ b/toys.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rafael Andrade RC\Documents\TeoriaBasesDatos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rafael Andrade RC\Documents\TeoriaBasesDatos\SantasWorkshop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{614BE777-D5F1-4115-A519-1C4CC4A8330B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0826A71F-1EE1-403B-AB4A-0BB35803677D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{C440C4C2-C6B2-47F1-9CA7-F73C70EFBB64}"/>
   </bookViews>
@@ -108,12 +108,6 @@
     <t>Elmo</t>
   </si>
   <si>
-    <t>Muñeco bebé</t>
-  </si>
-  <si>
-    <t>Muñeca bebé</t>
-  </si>
-  <si>
     <t>Insector</t>
   </si>
   <si>
@@ -265,13 +259,29 @@
   </si>
   <si>
     <t>Halo Infinite</t>
+  </si>
+  <si>
+    <t>Baby toy</t>
+  </si>
+  <si>
+    <t>Baby doll</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -297,13 +307,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Moneda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -619,7 +632,7 @@
   <dimension ref="A1:D74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -633,23 +646,23 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" t="s">
         <v>69</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>70</v>
-      </c>
-      <c r="C1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D1" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1">
         <v>913</v>
       </c>
       <c r="C2">
@@ -661,9 +674,9 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B3">
+        <v>28</v>
+      </c>
+      <c r="B3" s="1">
         <v>15</v>
       </c>
       <c r="C3">
@@ -675,9 +688,9 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B4">
+        <v>29</v>
+      </c>
+      <c r="B4" s="1">
         <v>718</v>
       </c>
       <c r="C4">
@@ -691,49 +704,49 @@
       <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="1">
         <v>241</v>
       </c>
       <c r="C5">
         <v>16</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B6">
+        <v>30</v>
+      </c>
+      <c r="B6" s="1">
         <v>358</v>
       </c>
       <c r="C6">
         <v>5</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>1</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="1">
         <v>677</v>
       </c>
       <c r="C7">
         <v>13</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>33</v>
-      </c>
-      <c r="B8">
+        <v>31</v>
+      </c>
+      <c r="B8" s="1">
         <v>189</v>
       </c>
       <c r="C8">
@@ -747,7 +760,7 @@
       <c r="A9" t="s">
         <v>2</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="1">
         <v>786</v>
       </c>
       <c r="C9">
@@ -761,7 +774,7 @@
       <c r="A10" t="s">
         <v>3</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="1">
         <v>612</v>
       </c>
       <c r="C10">
@@ -775,7 +788,7 @@
       <c r="A11" t="s">
         <v>4</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="1">
         <v>709</v>
       </c>
       <c r="C11">
@@ -789,7 +802,7 @@
       <c r="A12" t="s">
         <v>5</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="1">
         <v>974</v>
       </c>
       <c r="C12">
@@ -803,7 +816,7 @@
       <c r="A13" t="s">
         <v>6</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="1">
         <v>243</v>
       </c>
       <c r="C13">
@@ -815,9 +828,9 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>34</v>
-      </c>
-      <c r="B14">
+        <v>32</v>
+      </c>
+      <c r="B14" s="1">
         <v>987</v>
       </c>
       <c r="C14">
@@ -829,9 +842,9 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>35</v>
-      </c>
-      <c r="B15">
+        <v>33</v>
+      </c>
+      <c r="B15" s="1">
         <v>941</v>
       </c>
       <c r="C15">
@@ -843,9 +856,9 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>36</v>
-      </c>
-      <c r="B16">
+        <v>34</v>
+      </c>
+      <c r="B16" s="1">
         <v>489</v>
       </c>
       <c r="C16">
@@ -859,7 +872,7 @@
       <c r="A17" t="s">
         <v>8</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="1">
         <v>442</v>
       </c>
       <c r="C17">
@@ -873,7 +886,7 @@
       <c r="A18" t="s">
         <v>9</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="1">
         <v>950</v>
       </c>
       <c r="C18">
@@ -887,7 +900,7 @@
       <c r="A19" t="s">
         <v>10</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="1">
         <v>838</v>
       </c>
       <c r="C19">
@@ -901,7 +914,7 @@
       <c r="A20" t="s">
         <v>11</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="1">
         <v>940</v>
       </c>
       <c r="C20">
@@ -913,9 +926,9 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>37</v>
-      </c>
-      <c r="B21">
+        <v>35</v>
+      </c>
+      <c r="B21" s="1">
         <v>703</v>
       </c>
       <c r="C21">
@@ -927,9 +940,9 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>38</v>
-      </c>
-      <c r="B22">
+        <v>36</v>
+      </c>
+      <c r="B22" s="1">
         <v>294</v>
       </c>
       <c r="C22">
@@ -941,9 +954,9 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>39</v>
-      </c>
-      <c r="B23">
+        <v>37</v>
+      </c>
+      <c r="B23" s="1">
         <v>106</v>
       </c>
       <c r="C23">
@@ -955,9 +968,9 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>50</v>
-      </c>
-      <c r="B24">
+        <v>48</v>
+      </c>
+      <c r="B24" s="1">
         <v>813</v>
       </c>
       <c r="C24">
@@ -971,7 +984,7 @@
       <c r="A25" t="s">
         <v>12</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="1">
         <v>799</v>
       </c>
       <c r="C25">
@@ -983,9 +996,9 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>40</v>
-      </c>
-      <c r="B26">
+        <v>38</v>
+      </c>
+      <c r="B26" s="1">
         <v>381</v>
       </c>
       <c r="C26">
@@ -997,23 +1010,23 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>41</v>
-      </c>
-      <c r="B27">
+        <v>39</v>
+      </c>
+      <c r="B27" s="1">
         <v>576</v>
       </c>
       <c r="C27">
         <v>9</v>
       </c>
       <c r="D27">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>13</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="1">
         <v>667</v>
       </c>
       <c r="C28">
@@ -1025,9 +1038,9 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>42</v>
-      </c>
-      <c r="B29">
+        <v>40</v>
+      </c>
+      <c r="B29" s="1">
         <v>69</v>
       </c>
       <c r="C29">
@@ -1039,9 +1052,9 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>43</v>
-      </c>
-      <c r="B30">
+        <v>41</v>
+      </c>
+      <c r="B30" s="1">
         <v>433</v>
       </c>
       <c r="C30">
@@ -1053,9 +1066,9 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>44</v>
-      </c>
-      <c r="B31">
+        <v>42</v>
+      </c>
+      <c r="B31" s="1">
         <v>356</v>
       </c>
       <c r="C31">
@@ -1067,9 +1080,9 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>45</v>
-      </c>
-      <c r="B32">
+        <v>43</v>
+      </c>
+      <c r="B32" s="1">
         <v>797</v>
       </c>
       <c r="C32">
@@ -1083,7 +1096,7 @@
       <c r="A33" t="s">
         <v>14</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="1">
         <v>56</v>
       </c>
       <c r="C33">
@@ -1097,7 +1110,7 @@
       <c r="A34" t="s">
         <v>15</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="1">
         <v>755</v>
       </c>
       <c r="C34">
@@ -1109,9 +1122,9 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>46</v>
-      </c>
-      <c r="B35">
+        <v>44</v>
+      </c>
+      <c r="B35" s="1">
         <v>187</v>
       </c>
       <c r="C35">
@@ -1123,9 +1136,9 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>47</v>
-      </c>
-      <c r="B36">
+        <v>45</v>
+      </c>
+      <c r="B36" s="1">
         <v>324</v>
       </c>
       <c r="C36">
@@ -1139,7 +1152,7 @@
       <c r="A37" t="s">
         <v>16</v>
       </c>
-      <c r="B37">
+      <c r="B37" s="1">
         <v>853</v>
       </c>
       <c r="C37">
@@ -1153,7 +1166,7 @@
       <c r="A38" t="s">
         <v>17</v>
       </c>
-      <c r="B38">
+      <c r="B38" s="1">
         <v>989</v>
       </c>
       <c r="C38">
@@ -1165,9 +1178,9 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>48</v>
-      </c>
-      <c r="B39">
+        <v>46</v>
+      </c>
+      <c r="B39" s="1">
         <v>618</v>
       </c>
       <c r="C39">
@@ -1181,7 +1194,7 @@
       <c r="A40" t="s">
         <v>18</v>
       </c>
-      <c r="B40">
+      <c r="B40" s="1">
         <v>406</v>
       </c>
       <c r="C40">
@@ -1195,7 +1208,7 @@
       <c r="A41" t="s">
         <v>19</v>
       </c>
-      <c r="B41">
+      <c r="B41" s="1">
         <v>351</v>
       </c>
       <c r="C41">
@@ -1209,7 +1222,7 @@
       <c r="A42" t="s">
         <v>20</v>
       </c>
-      <c r="B42">
+      <c r="B42" s="1">
         <v>977</v>
       </c>
       <c r="C42">
@@ -1223,7 +1236,7 @@
       <c r="A43" t="s">
         <v>21</v>
       </c>
-      <c r="B43">
+      <c r="B43" s="1">
         <v>187</v>
       </c>
       <c r="C43">
@@ -1235,9 +1248,9 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>49</v>
-      </c>
-      <c r="B44">
+        <v>47</v>
+      </c>
+      <c r="B44" s="1">
         <v>504</v>
       </c>
       <c r="C44">
@@ -1251,7 +1264,7 @@
       <c r="A45" t="s">
         <v>22</v>
       </c>
-      <c r="B45">
+      <c r="B45" s="1">
         <v>589</v>
       </c>
       <c r="C45">
@@ -1265,7 +1278,7 @@
       <c r="A46" t="s">
         <v>23</v>
       </c>
-      <c r="B46">
+      <c r="B46" s="1">
         <v>996</v>
       </c>
       <c r="C46">
@@ -1277,9 +1290,9 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>24</v>
-      </c>
-      <c r="B47">
+        <v>75</v>
+      </c>
+      <c r="B47" s="1">
         <v>595</v>
       </c>
       <c r="C47">
@@ -1291,9 +1304,9 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>25</v>
-      </c>
-      <c r="B48">
+        <v>76</v>
+      </c>
+      <c r="B48" s="1">
         <v>562</v>
       </c>
       <c r="C48">
@@ -1305,9 +1318,9 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>51</v>
-      </c>
-      <c r="B49">
+        <v>49</v>
+      </c>
+      <c r="B49" s="1">
         <v>871</v>
       </c>
       <c r="C49">
@@ -1319,9 +1332,9 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>26</v>
-      </c>
-      <c r="B50">
+        <v>24</v>
+      </c>
+      <c r="B50" s="1">
         <v>345</v>
       </c>
       <c r="C50">
@@ -1333,9 +1346,9 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>52</v>
-      </c>
-      <c r="B51">
+        <v>50</v>
+      </c>
+      <c r="B51" s="1">
         <v>853</v>
       </c>
       <c r="C51">
@@ -1347,9 +1360,9 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>53</v>
-      </c>
-      <c r="B52">
+        <v>51</v>
+      </c>
+      <c r="B52" s="1">
         <v>954</v>
       </c>
       <c r="C52">
@@ -1361,9 +1374,9 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>27</v>
-      </c>
-      <c r="B53">
+        <v>25</v>
+      </c>
+      <c r="B53" s="1">
         <v>26</v>
       </c>
       <c r="C53">
@@ -1375,9 +1388,9 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>28</v>
-      </c>
-      <c r="B54">
+        <v>26</v>
+      </c>
+      <c r="B54" s="1">
         <v>404</v>
       </c>
       <c r="C54">
@@ -1389,9 +1402,9 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>29</v>
-      </c>
-      <c r="B55">
+        <v>27</v>
+      </c>
+      <c r="B55" s="1">
         <v>64</v>
       </c>
       <c r="C55">
@@ -1403,9 +1416,9 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>54</v>
-      </c>
-      <c r="B56">
+        <v>52</v>
+      </c>
+      <c r="B56" s="1">
         <v>120</v>
       </c>
       <c r="C56">
@@ -1417,9 +1430,9 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>55</v>
-      </c>
-      <c r="B57">
+        <v>53</v>
+      </c>
+      <c r="B57" s="1">
         <v>583</v>
       </c>
       <c r="C57">
@@ -1431,9 +1444,9 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>56</v>
-      </c>
-      <c r="B58">
+        <v>54</v>
+      </c>
+      <c r="B58" s="1">
         <v>596</v>
       </c>
       <c r="C58">
@@ -1445,9 +1458,9 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>57</v>
-      </c>
-      <c r="B59">
+        <v>55</v>
+      </c>
+      <c r="B59" s="1">
         <v>249</v>
       </c>
       <c r="C59">
@@ -1459,23 +1472,23 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>58</v>
-      </c>
-      <c r="B60">
+        <v>56</v>
+      </c>
+      <c r="B60" s="1">
         <v>662</v>
       </c>
       <c r="C60">
         <v>15</v>
       </c>
       <c r="D60">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>59</v>
-      </c>
-      <c r="B61">
+        <v>57</v>
+      </c>
+      <c r="B61" s="1">
         <v>703</v>
       </c>
       <c r="C61">
@@ -1487,23 +1500,23 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>60</v>
-      </c>
-      <c r="B62">
+        <v>58</v>
+      </c>
+      <c r="B62" s="1">
         <v>842</v>
       </c>
       <c r="C62">
         <v>4</v>
       </c>
       <c r="D62">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>61</v>
-      </c>
-      <c r="B63">
+        <v>59</v>
+      </c>
+      <c r="B63" s="1">
         <v>312</v>
       </c>
       <c r="C63">
@@ -1515,9 +1528,9 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>62</v>
-      </c>
-      <c r="B64">
+        <v>60</v>
+      </c>
+      <c r="B64" s="1">
         <v>359</v>
       </c>
       <c r="C64">
@@ -1529,9 +1542,9 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>63</v>
-      </c>
-      <c r="B65">
+        <v>61</v>
+      </c>
+      <c r="B65" s="1">
         <v>392</v>
       </c>
       <c r="C65">
@@ -1543,9 +1556,9 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>64</v>
-      </c>
-      <c r="B66">
+        <v>62</v>
+      </c>
+      <c r="B66" s="1">
         <v>237</v>
       </c>
       <c r="C66">
@@ -1557,9 +1570,9 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>65</v>
-      </c>
-      <c r="B67">
+        <v>63</v>
+      </c>
+      <c r="B67" s="1">
         <v>518</v>
       </c>
       <c r="C67">
@@ -1571,9 +1584,9 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>66</v>
-      </c>
-      <c r="B68">
+        <v>64</v>
+      </c>
+      <c r="B68" s="1">
         <v>269</v>
       </c>
       <c r="C68">
@@ -1585,9 +1598,9 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>67</v>
-      </c>
-      <c r="B69">
+        <v>65</v>
+      </c>
+      <c r="B69" s="1">
         <v>524</v>
       </c>
       <c r="C69">
@@ -1599,9 +1612,9 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>68</v>
-      </c>
-      <c r="B70">
+        <v>66</v>
+      </c>
+      <c r="B70" s="1">
         <v>91</v>
       </c>
       <c r="C70">
@@ -1613,9 +1626,9 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>73</v>
-      </c>
-      <c r="B71">
+        <v>71</v>
+      </c>
+      <c r="B71" s="1">
         <v>695</v>
       </c>
       <c r="C71">
@@ -1627,9 +1640,9 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>74</v>
-      </c>
-      <c r="B72">
+        <v>72</v>
+      </c>
+      <c r="B72" s="1">
         <v>368</v>
       </c>
       <c r="C72">
@@ -1641,9 +1654,9 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>75</v>
-      </c>
-      <c r="B73">
+        <v>73</v>
+      </c>
+      <c r="B73" s="1">
         <v>555</v>
       </c>
       <c r="C73">
@@ -1655,9 +1668,9 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>76</v>
-      </c>
-      <c r="B74">
+        <v>74</v>
+      </c>
+      <c r="B74" s="1">
         <v>979</v>
       </c>
       <c r="C74">

--- a/toys.xlsx
+++ b/toys.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rafael Andrade RC\Documents\TeoriaBasesDatos\SantasWorkshop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0826A71F-1EE1-403B-AB4A-0BB35803677D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2493C9DB-CCFA-40F1-A67E-1A6DA9452B42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{C440C4C2-C6B2-47F1-9CA7-F73C70EFBB64}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="78">
   <si>
     <t>Yoyo</t>
   </si>
@@ -265,6 +265,9 @@
   </si>
   <si>
     <t>Baby doll</t>
+  </si>
+  <si>
+    <t>Toy_maker</t>
   </si>
 </sst>
 </file>
@@ -629,10 +632,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1005B95-85C3-4114-BE09-3A45D6317EBA}">
-  <dimension ref="A1:D74"/>
+  <dimension ref="A1:E74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -644,7 +647,7 @@
     <col min="9" max="9" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>67</v>
       </c>
@@ -657,8 +660,11 @@
       <c r="D1" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -671,8 +677,11 @@
       <c r="D2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2">
+        <v>8078</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>28</v>
       </c>
@@ -685,8 +694,11 @@
       <c r="D3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3">
+        <v>9683</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>29</v>
       </c>
@@ -699,8 +711,11 @@
       <c r="D4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4">
+        <v>7699</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -713,8 +728,11 @@
       <c r="D5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5">
+        <v>2795</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>30</v>
       </c>
@@ -727,8 +745,11 @@
       <c r="D6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6">
+        <v>9150</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>1</v>
       </c>
@@ -741,8 +762,11 @@
       <c r="D7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7">
+        <v>2985</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>31</v>
       </c>
@@ -755,8 +779,11 @@
       <c r="D8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E8">
+        <v>3393</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>2</v>
       </c>
@@ -769,8 +796,11 @@
       <c r="D9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E9">
+        <v>3116</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>3</v>
       </c>
@@ -783,8 +813,11 @@
       <c r="D10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E10">
+        <v>8891</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -797,8 +830,11 @@
       <c r="D11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E11">
+        <v>6420</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>5</v>
       </c>
@@ -811,8 +847,11 @@
       <c r="D12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E12">
+        <v>1492</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>6</v>
       </c>
@@ -825,8 +864,11 @@
       <c r="D13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E13">
+        <v>2029</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>32</v>
       </c>
@@ -839,8 +881,11 @@
       <c r="D14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E14">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>33</v>
       </c>
@@ -853,8 +898,11 @@
       <c r="D15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E15">
+        <v>6895</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>34</v>
       </c>
@@ -867,8 +915,11 @@
       <c r="D16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E16">
+        <v>1448</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>8</v>
       </c>
@@ -881,8 +932,11 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E17">
+        <v>4864</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>9</v>
       </c>
@@ -895,8 +949,11 @@
       <c r="D18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E18">
+        <v>5107</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>10</v>
       </c>
@@ -909,8 +966,11 @@
       <c r="D19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E19">
+        <v>2491</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>11</v>
       </c>
@@ -923,8 +983,11 @@
       <c r="D20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E20">
+        <v>9105</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>35</v>
       </c>
@@ -937,8 +1000,11 @@
       <c r="D21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E21">
+        <v>6316</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>36</v>
       </c>
@@ -951,8 +1017,11 @@
       <c r="D22">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E22">
+        <v>9012</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>37</v>
       </c>
@@ -965,8 +1034,11 @@
       <c r="D23">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E23">
+        <v>3727</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>48</v>
       </c>
@@ -979,8 +1051,11 @@
       <c r="D24">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E24">
+        <v>1783</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>12</v>
       </c>
@@ -993,8 +1068,11 @@
       <c r="D25">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E25">
+        <v>2343</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>38</v>
       </c>
@@ -1007,8 +1085,11 @@
       <c r="D26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E26">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>39</v>
       </c>
@@ -1021,8 +1102,11 @@
       <c r="D27">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E27">
+        <v>7632</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>13</v>
       </c>
@@ -1035,8 +1119,11 @@
       <c r="D28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E28">
+        <v>3048</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>40</v>
       </c>
@@ -1049,8 +1136,11 @@
       <c r="D29">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E29">
+        <v>3801</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>41</v>
       </c>
@@ -1063,8 +1153,11 @@
       <c r="D30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E30">
+        <v>3933</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>42</v>
       </c>
@@ -1077,8 +1170,11 @@
       <c r="D31">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E31">
+        <v>4674</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>43</v>
       </c>
@@ -1091,8 +1187,11 @@
       <c r="D32">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E32">
+        <v>3760</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>14</v>
       </c>
@@ -1105,8 +1204,11 @@
       <c r="D33">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E33">
+        <v>4897</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>15</v>
       </c>
@@ -1119,8 +1221,11 @@
       <c r="D34">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E34">
+        <v>9596</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>44</v>
       </c>
@@ -1133,8 +1238,11 @@
       <c r="D35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E35">
+        <v>5416</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>45</v>
       </c>
@@ -1147,8 +1255,11 @@
       <c r="D36">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E36">
+        <v>4950</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>16</v>
       </c>
@@ -1161,8 +1272,11 @@
       <c r="D37">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E37">
+        <v>2931</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>17</v>
       </c>
@@ -1175,8 +1289,11 @@
       <c r="D38">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E38">
+        <v>3093</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>46</v>
       </c>
@@ -1189,8 +1306,11 @@
       <c r="D39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E39">
+        <v>6407</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>18</v>
       </c>
@@ -1203,8 +1323,11 @@
       <c r="D40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E40">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>19</v>
       </c>
@@ -1217,8 +1340,11 @@
       <c r="D41">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E41">
+        <v>5433</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>20</v>
       </c>
@@ -1231,8 +1357,11 @@
       <c r="D42">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E42">
+        <v>5952</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>21</v>
       </c>
@@ -1245,8 +1374,11 @@
       <c r="D43">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E43">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>47</v>
       </c>
@@ -1259,8 +1391,11 @@
       <c r="D44">
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E44">
+        <v>4451</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>22</v>
       </c>
@@ -1273,8 +1408,11 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E45">
+        <v>3824</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>23</v>
       </c>
@@ -1287,8 +1425,11 @@
       <c r="D46">
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E46">
+        <v>6347</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>75</v>
       </c>
@@ -1301,8 +1442,11 @@
       <c r="D47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E47">
+        <v>8504</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>76</v>
       </c>
@@ -1315,8 +1459,11 @@
       <c r="D48">
         <v>1</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E48">
+        <v>7896</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>49</v>
       </c>
@@ -1329,8 +1476,11 @@
       <c r="D49">
         <v>1</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E49">
+        <v>2312</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>24</v>
       </c>
@@ -1343,8 +1493,11 @@
       <c r="D50">
         <v>1</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E50">
+        <v>8695</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>50</v>
       </c>
@@ -1357,8 +1510,11 @@
       <c r="D51">
         <v>1</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E51">
+        <v>4750</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>51</v>
       </c>
@@ -1371,8 +1527,11 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E52">
+        <v>8763</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>25</v>
       </c>
@@ -1385,8 +1544,11 @@
       <c r="D53">
         <v>1</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E53">
+        <v>8105</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>26</v>
       </c>
@@ -1399,8 +1561,11 @@
       <c r="D54">
         <v>1</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E54">
+        <v>8480</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>27</v>
       </c>
@@ -1413,8 +1578,11 @@
       <c r="D55">
         <v>1</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E55">
+        <v>4692</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>52</v>
       </c>
@@ -1427,8 +1595,11 @@
       <c r="D56">
         <v>1</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E56">
+        <v>4055</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>53</v>
       </c>
@@ -1441,8 +1612,11 @@
       <c r="D57">
         <v>1</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E57">
+        <v>9868</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>54</v>
       </c>
@@ -1455,8 +1629,11 @@
       <c r="D58">
         <v>1</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E58">
+        <v>3405</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>55</v>
       </c>
@@ -1469,8 +1646,11 @@
       <c r="D59">
         <v>1</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E59">
+        <v>1680</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>56</v>
       </c>
@@ -1483,8 +1663,11 @@
       <c r="D60">
         <v>1</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E60">
+        <v>5805</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>57</v>
       </c>
@@ -1497,8 +1680,11 @@
       <c r="D61">
         <v>1</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E61">
+        <v>1768</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>58</v>
       </c>
@@ -1511,8 +1697,11 @@
       <c r="D62">
         <v>1</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E62">
+        <v>7331</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>59</v>
       </c>
@@ -1525,8 +1714,11 @@
       <c r="D63">
         <v>1</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E63">
+        <v>3564</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>60</v>
       </c>
@@ -1539,8 +1731,11 @@
       <c r="D64">
         <v>1</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E64">
+        <v>3805</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>61</v>
       </c>
@@ -1553,8 +1748,11 @@
       <c r="D65">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E65">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>62</v>
       </c>
@@ -1567,8 +1765,11 @@
       <c r="D66">
         <v>1</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E66">
+        <v>6315</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>63</v>
       </c>
@@ -1581,8 +1782,11 @@
       <c r="D67">
         <v>1</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E67">
+        <v>9393</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>64</v>
       </c>
@@ -1595,8 +1799,11 @@
       <c r="D68">
         <v>1</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E68">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>65</v>
       </c>
@@ -1609,8 +1816,11 @@
       <c r="D69">
         <v>1</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E69">
+        <v>3519</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>66</v>
       </c>
@@ -1623,8 +1833,11 @@
       <c r="D70">
         <v>1</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E70">
+        <v>8596</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>71</v>
       </c>
@@ -1637,8 +1850,11 @@
       <c r="D71">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E71">
+        <v>9152</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>72</v>
       </c>
@@ -1651,8 +1867,11 @@
       <c r="D72">
         <v>1</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E72">
+        <v>8505</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>73</v>
       </c>
@@ -1665,8 +1884,11 @@
       <c r="D73">
         <v>1</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E73">
+        <v>8192</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>74</v>
       </c>
@@ -1678,6 +1900,9 @@
       </c>
       <c r="D74">
         <v>1</v>
+      </c>
+      <c r="E74">
+        <v>2430</v>
       </c>
     </row>
   </sheetData>
